--- a/biology/Botanique/Eperua/Eperua.xlsx
+++ b/biology/Botanique/Eperua/Eperua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eperua est un genre de la famille des Fabaceae (anciennement des Caesalpiniaceae), et dont l'espèce type est Eperua falcata Aubl..
-Le nom Eperua provient du nom Galibi de son fruit qui signifie « Sabre » en raison de la forme du fruit d’Eperua falcata, qui ressemble effectivement à un sabre ou à une demi-lune[1].
+Le nom Eperua provient du nom Galibi de son fruit qui signifie « Sabre » en raison de la forme du fruit d’Eperua falcata, qui ressemble effectivement à un sabre ou à une demi-lune.
 Trois espèces d'Eperua ont été observées en Guyane : Eperua falcata, Eperua grandiflora, Eperua rubiginosa.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre  comprend une quinzaine d'espèces d'arbres des tropiques.
 Eperua bijuga
@@ -559,9 +573,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (29 mai 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (29 mai 2022) :
 Eperua banaensis G.A.Romero &amp; Aymard
 Eperua bijuga Mart. ex Benth.
 Eperua duckeana R.S.Cowan
@@ -587,7 +603,7 @@
 Eperua rubiginosa var. rubiginosa
 Eperua schomburgkiana Benth.
 Eperua venosa R.S.Cowan
-Selon Tropicos                                           (29 mai 2022)[3] :
+Selon Tropicos                                           (29 mai 2022) :
 Eperua banaensis G.A. Romero &amp; Aymard, 2019
 Eperua bijuga Mart. ex Benth., 1870
 Eperua campestris (Ducke) Ducke, 1940
@@ -607,7 +623,7 @@
 Eperua praesagata R.S. Cowan, 1985
 Eperua purpurea Benth., 1870
 Eperua rhomboidea Blanco, 1845
-Eperua rubiginosa Miq., 1850 [1851]
+Eperua rubiginosa Miq., 1850 
 Eperua schomburgkiana Benth., 1870
 Eperua stipulata Kleinhoonte, 1933
 Eperua venosa R.S. Cowan, 1958
